--- a/ExcelFiles/Project-Vss.xlsx
+++ b/ExcelFiles/Project-Vss.xlsx
@@ -678,25 +678,25 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="131622016"/>
-        <c:axId val="131623552"/>
+        <c:axId val="147219200"/>
+        <c:axId val="147220736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131622016"/>
+        <c:axId val="147219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131623552"/>
+        <c:crossAx val="147220736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131623552"/>
+        <c:axId val="147220736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131622016"/>
+        <c:crossAx val="147219200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -742,7 +742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1068,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M21"/>
+  <dimension ref="A3:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,14 +1349,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A30" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
